--- a/20180718140847.xlsx
+++ b/20180718140847.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\best\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F79EB55-279A-44ED-B322-E7AB28932090}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E386A83-687B-4208-B340-C3B3B5E26D77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -40,12 +40,6 @@
     <t>M15</t>
   </si>
   <si>
-    <t>300746.SZ</t>
-  </si>
-  <si>
-    <t>汉嘉设计</t>
-  </si>
-  <si>
     <t>002112.SZ</t>
   </si>
   <si>
@@ -58,30 +52,6 @@
     <t>合纵科技</t>
   </si>
   <si>
-    <t>603650.SH</t>
-  </si>
-  <si>
-    <t>彤程新材</t>
-  </si>
-  <si>
-    <t>300647.SZ</t>
-  </si>
-  <si>
-    <t>超频三</t>
-  </si>
-  <si>
-    <t>600536.SH</t>
-  </si>
-  <si>
-    <t>中国软件</t>
-  </si>
-  <si>
-    <t>300615.SZ</t>
-  </si>
-  <si>
-    <t>欣天科技</t>
-  </si>
-  <si>
     <t>000593.SZ</t>
   </si>
   <si>
@@ -94,24 +64,12 @@
     <t>弘高创意</t>
   </si>
   <si>
-    <t>600432.SH</t>
-  </si>
-  <si>
-    <t>退市吉恩(退市)</t>
-  </si>
-  <si>
     <t>002164.SZ</t>
   </si>
   <si>
     <t>宁波东力</t>
   </si>
   <si>
-    <t>603486.SH</t>
-  </si>
-  <si>
-    <t>科沃斯</t>
-  </si>
-  <si>
     <t>603067.SH</t>
   </si>
   <si>
@@ -130,24 +88,6 @@
     <t>星湖科技</t>
   </si>
   <si>
-    <t>300578.SZ</t>
-  </si>
-  <si>
-    <t>会畅通讯</t>
-  </si>
-  <si>
-    <t>300499.SZ</t>
-  </si>
-  <si>
-    <t>高澜股份</t>
-  </si>
-  <si>
-    <t>300706.SZ</t>
-  </si>
-  <si>
-    <t>阿石创</t>
-  </si>
-  <si>
     <t>601028.SH</t>
   </si>
   <si>
@@ -166,24 +106,12 @@
     <t>民德电子</t>
   </si>
   <si>
-    <t>002300.SZ</t>
-  </si>
-  <si>
-    <t>太阳电缆</t>
-  </si>
-  <si>
     <t>300411.SZ</t>
   </si>
   <si>
     <t>金盾股份</t>
   </si>
   <si>
-    <t>300290.SZ</t>
-  </si>
-  <si>
-    <t>荣科科技</t>
-  </si>
-  <si>
     <t>300344.SZ</t>
   </si>
   <si>
@@ -196,42 +124,18 @@
     <t>全志科技</t>
   </si>
   <si>
-    <t>002813.SZ</t>
-  </si>
-  <si>
-    <t>路畅科技</t>
-  </si>
-  <si>
     <t>600495.SH</t>
   </si>
   <si>
     <t>晋西车轴</t>
   </si>
   <si>
-    <t>603819.SH</t>
-  </si>
-  <si>
-    <t>神力股份</t>
-  </si>
-  <si>
-    <t>000555.SZ</t>
-  </si>
-  <si>
-    <t>神州信息</t>
-  </si>
-  <si>
     <t>300125.SZ</t>
   </si>
   <si>
     <t>易世达</t>
   </si>
   <si>
-    <t>000790.SZ</t>
-  </si>
-  <si>
-    <t>泰合健康</t>
-  </si>
-  <si>
     <t>002806.SZ</t>
   </si>
   <si>
@@ -250,36 +154,12 @@
     <t>青松股份</t>
   </si>
   <si>
-    <t>603901.SH</t>
-  </si>
-  <si>
-    <t>永创智能</t>
-  </si>
-  <si>
     <t>300282.SZ</t>
   </si>
   <si>
     <t>三盛教育</t>
   </si>
   <si>
-    <t>002796.SZ</t>
-  </si>
-  <si>
-    <t>世嘉科技</t>
-  </si>
-  <si>
-    <t>300713.SZ</t>
-  </si>
-  <si>
-    <t>英可瑞</t>
-  </si>
-  <si>
-    <t>300680.SZ</t>
-  </si>
-  <si>
-    <t>隆盛科技</t>
-  </si>
-  <si>
     <t>603013.SH</t>
   </si>
   <si>
@@ -298,12 +178,6 @@
     <t>中海达</t>
   </si>
   <si>
-    <t>002776.SZ</t>
-  </si>
-  <si>
-    <t>柏堡龙</t>
-  </si>
-  <si>
     <t>600847.SH</t>
   </si>
   <si>
@@ -346,24 +220,6 @@
     <t>泰尔股份</t>
   </si>
   <si>
-    <t>300732.SZ</t>
-  </si>
-  <si>
-    <t>设研院</t>
-  </si>
-  <si>
-    <t>002927.SZ</t>
-  </si>
-  <si>
-    <t>泰永长征</t>
-  </si>
-  <si>
-    <t>603722.SH</t>
-  </si>
-  <si>
-    <t>阿科力</t>
-  </si>
-  <si>
     <t>300560.SZ</t>
   </si>
   <si>
@@ -376,18 +232,6 @@
     <t>鼎信通讯</t>
   </si>
   <si>
-    <t>300589.SZ</t>
-  </si>
-  <si>
-    <t>江龙船艇</t>
-  </si>
-  <si>
-    <t>002371.SZ</t>
-  </si>
-  <si>
-    <t>北方华创</t>
-  </si>
-  <si>
     <t>300673.SZ</t>
   </si>
   <si>
@@ -400,18 +244,6 @@
     <t>陕西金叶</t>
   </si>
   <si>
-    <t>300743.SZ</t>
-  </si>
-  <si>
-    <t>天地数码</t>
-  </si>
-  <si>
-    <t>603666.SH</t>
-  </si>
-  <si>
-    <t>亿嘉和</t>
-  </si>
-  <si>
     <t>603718.SH</t>
   </si>
   <si>
@@ -424,12 +256,6 @@
     <t>广东鸿图</t>
   </si>
   <si>
-    <t>300720.SZ</t>
-  </si>
-  <si>
-    <t>海川智能</t>
-  </si>
-  <si>
     <t>002035.SZ</t>
   </si>
   <si>
@@ -442,24 +268,12 @@
     <t>山东金泰</t>
   </si>
   <si>
-    <t>002930.SZ</t>
-  </si>
-  <si>
-    <t>宏川智慧</t>
-  </si>
-  <si>
     <t>600393.SH</t>
   </si>
   <si>
     <t>粤泰股份</t>
   </si>
   <si>
-    <t>601066.SH</t>
-  </si>
-  <si>
-    <t>中信建投</t>
-  </si>
-  <si>
     <t>600619.SH</t>
   </si>
   <si>
@@ -490,24 +304,12 @@
     <t>北新路桥</t>
   </si>
   <si>
-    <t>002412.SZ</t>
-  </si>
-  <si>
-    <t>汉森制药</t>
-  </si>
-  <si>
     <t>002701.SZ</t>
   </si>
   <si>
     <t>奥瑞金</t>
   </si>
   <si>
-    <t>300644.SZ</t>
-  </si>
-  <si>
-    <t>南京聚隆</t>
-  </si>
-  <si>
     <t>603856.SH</t>
   </si>
   <si>
@@ -532,18 +334,6 @@
     <t>和顺电气</t>
   </si>
   <si>
-    <t>002163.SZ</t>
-  </si>
-  <si>
-    <t>中航三鑫</t>
-  </si>
-  <si>
-    <t>002679.SZ</t>
-  </si>
-  <si>
-    <t>福建金森</t>
-  </si>
-  <si>
     <t>300534.SZ</t>
   </si>
   <si>
@@ -574,12 +364,6 @@
     <t>金逸影视</t>
   </si>
   <si>
-    <t>603383.SH</t>
-  </si>
-  <si>
-    <t>顶点软件</t>
-  </si>
-  <si>
     <t>002903.SZ</t>
   </si>
   <si>
@@ -674,12 +458,6 @@
   </si>
   <si>
     <t>永安林业</t>
-  </si>
-  <si>
-    <t>300693.SZ</t>
-  </si>
-  <si>
-    <t>盛弘股份</t>
   </si>
   <si>
     <t>300521.SZ</t>
@@ -770,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,12 +577,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF4500"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF8B0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -861,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -876,9 +648,6 @@
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1164,10 +933,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1201,7 +970,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1209,19 +978,19 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4">
-        <v>-4.1619999999999999</v>
+      <c r="D2" s="5">
+        <v>9.49</v>
       </c>
       <c r="E2" s="4">
-        <v>-1.877</v>
+        <v>-0.47899999999999998</v>
       </c>
       <c r="F2" s="4">
-        <v>-0.29099999999999998</v>
+        <v>-1.708</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -1230,18 +999,18 @@
         <v>9</v>
       </c>
       <c r="D3" s="5">
-        <v>9.49</v>
+        <v>8.2040000000000006</v>
       </c>
       <c r="E3" s="4">
-        <v>-0.47899999999999998</v>
+        <v>-0.373</v>
       </c>
       <c r="F3" s="4">
-        <v>-1.708</v>
+        <v>-0.99399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -1250,18 +1019,18 @@
         <v>11</v>
       </c>
       <c r="D4" s="5">
-        <v>8.2040000000000006</v>
+        <v>9.2279999999999998</v>
       </c>
       <c r="E4" s="4">
-        <v>-0.373</v>
+        <v>-4.8529999999999998</v>
       </c>
       <c r="F4" s="4">
-        <v>-0.99399999999999999</v>
+        <v>-0.59599999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -1269,19 +1038,19 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
+      <c r="D5" s="5">
+        <v>4.83</v>
       </c>
       <c r="E5" s="4">
-        <v>-2.6280000000000001</v>
+        <v>-1.012</v>
       </c>
       <c r="F5" s="4">
-        <v>-0.22</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>14</v>
@@ -1289,19 +1058,19 @@
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
-        <v>-7.5430000000000001</v>
+      <c r="D6" s="5">
+        <v>3.5779999999999998</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.871</v>
+        <v>-0.49199999999999999</v>
       </c>
       <c r="F6" s="4">
-        <v>-9.0999999999999998E-2</v>
+        <v>-0.17699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1309,19 +1078,19 @@
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="6">
-        <v>2.4529999999999998</v>
+      <c r="D7" s="5">
+        <v>1.6439999999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>-1.2070000000000001</v>
+        <v>-0.84099999999999997</v>
       </c>
       <c r="F7" s="4">
-        <v>-0.246</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1329,19 +1098,19 @@
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6">
-        <v>0.43</v>
+      <c r="D8" s="5">
+        <v>5.1749999999999998</v>
       </c>
       <c r="E8" s="4">
-        <v>-0.73899999999999999</v>
+        <v>-1.306</v>
       </c>
       <c r="F8" s="4">
-        <v>-0.17</v>
+        <v>-1.2989999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
@@ -1350,18 +1119,18 @@
         <v>21</v>
       </c>
       <c r="D9" s="5">
-        <v>9.2279999999999998</v>
+        <v>5.4489999999999998</v>
       </c>
       <c r="E9" s="4">
-        <v>-4.8529999999999998</v>
+        <v>-0.36399999999999999</v>
       </c>
       <c r="F9" s="4">
-        <v>-0.59599999999999997</v>
+        <v>-0.91800000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
@@ -1370,18 +1139,18 @@
         <v>23</v>
       </c>
       <c r="D10" s="5">
-        <v>4.83</v>
+        <v>6.4630000000000001</v>
       </c>
       <c r="E10" s="4">
-        <v>-1.012</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="F10" s="4">
-        <v>-0.05</v>
+        <v>-1.6950000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -1389,19 +1158,19 @@
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
+      <c r="D11" s="5">
+        <v>3.4289999999999998</v>
       </c>
       <c r="E11" s="4">
-        <v>-2.4590000000000001</v>
+        <v>-0.255</v>
       </c>
       <c r="F11" s="4">
-        <v>-2.7E-2</v>
+        <v>-0.38800000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>26</v>
@@ -1410,18 +1179,18 @@
         <v>27</v>
       </c>
       <c r="D12" s="5">
-        <v>3.5779999999999998</v>
+        <v>2.9359999999999999</v>
       </c>
       <c r="E12" s="4">
-        <v>-0.49199999999999999</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="F12" s="4">
-        <v>-0.17699999999999999</v>
+        <v>-0.14199999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>28</v>
@@ -1429,19 +1198,19 @@
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6">
-        <v>0.50900000000000001</v>
+      <c r="D13" s="5">
+        <v>6.5529999999999999</v>
       </c>
       <c r="E13" s="4">
-        <v>-0.55300000000000005</v>
+        <v>-1.22</v>
       </c>
       <c r="F13" s="4">
-        <v>-3.2000000000000001E-2</v>
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>30</v>
@@ -1450,18 +1219,18 @@
         <v>31</v>
       </c>
       <c r="D14" s="5">
-        <v>1.6439999999999999</v>
+        <v>3.875</v>
       </c>
       <c r="E14" s="4">
-        <v>-0.84099999999999997</v>
+        <v>-0.59099999999999997</v>
       </c>
       <c r="F14" s="4">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.16900000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -1470,18 +1239,18 @@
         <v>33</v>
       </c>
       <c r="D15" s="5">
-        <v>5.1749999999999998</v>
+        <v>7.1950000000000003</v>
       </c>
       <c r="E15" s="4">
-        <v>-1.306</v>
+        <v>-0.83799999999999997</v>
       </c>
       <c r="F15" s="4">
-        <v>-1.2989999999999999</v>
+        <v>-0.33800000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>34</v>
@@ -1490,18 +1259,18 @@
         <v>35</v>
       </c>
       <c r="D16" s="5">
-        <v>5.4489999999999998</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="E16" s="4">
-        <v>-0.36399999999999999</v>
+        <v>-0.44700000000000001</v>
       </c>
       <c r="F16" s="4">
-        <v>-0.91800000000000004</v>
+        <v>-0.13500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -1509,19 +1278,19 @@
       <c r="C17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4">
-        <v>-1.788</v>
+      <c r="D17" s="5">
+        <v>2.956</v>
       </c>
       <c r="E17" s="4">
-        <v>-0.71599999999999997</v>
+        <v>-0.19400000000000001</v>
       </c>
       <c r="F17" s="4">
-        <v>-0.29499999999999998</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>38</v>
@@ -1529,19 +1298,19 @@
       <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="6">
-        <v>0.91300000000000003</v>
+      <c r="D18" s="5">
+        <v>0.56100000000000005</v>
       </c>
       <c r="E18" s="4">
-        <v>-0.159</v>
+        <v>-1.772</v>
       </c>
       <c r="F18" s="4">
-        <v>-9.6000000000000002E-2</v>
+        <v>-0.20100000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>40</v>
@@ -1549,19 +1318,19 @@
       <c r="C19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4">
-        <v>-2.1389999999999998</v>
+      <c r="D19" s="5">
+        <v>3.722</v>
       </c>
       <c r="E19" s="4">
+        <v>-0.94499999999999995</v>
+      </c>
+      <c r="F19" s="4">
         <v>-0.443</v>
-      </c>
-      <c r="F19" s="4">
-        <v>-0.16</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -1570,18 +1339,18 @@
         <v>43</v>
       </c>
       <c r="D20" s="5">
-        <v>6.4630000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="E20" s="4">
-        <v>-5.5E-2</v>
+        <v>-1.38</v>
       </c>
       <c r="F20" s="4">
-        <v>-1.6950000000000001</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>44</v>
@@ -1590,18 +1359,18 @@
         <v>45</v>
       </c>
       <c r="D21" s="5">
-        <v>3.4289999999999998</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="E21" s="4">
-        <v>-0.255</v>
+        <v>-0.16600000000000001</v>
       </c>
       <c r="F21" s="4">
-        <v>-0.38800000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>46</v>
@@ -1610,18 +1379,18 @@
         <v>47</v>
       </c>
       <c r="D22" s="5">
-        <v>2.9359999999999999</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="E22" s="4">
-        <v>-7.9000000000000001E-2</v>
+        <v>-0.47899999999999998</v>
       </c>
       <c r="F22" s="4">
-        <v>-0.14199999999999999</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>48</v>
@@ -1629,19 +1398,19 @@
       <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="6">
-        <v>1.575</v>
+      <c r="D23" s="5">
+        <v>5.4530000000000003</v>
       </c>
       <c r="E23" s="4">
-        <v>-8.2000000000000003E-2</v>
+        <v>-0.84</v>
       </c>
       <c r="F23" s="4">
-        <v>-0.16300000000000001</v>
+        <v>-2.8119999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>50</v>
@@ -1650,18 +1419,18 @@
         <v>51</v>
       </c>
       <c r="D24" s="5">
-        <v>6.5529999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="E24" s="4">
-        <v>-1.22</v>
+        <v>-0.73799999999999999</v>
       </c>
       <c r="F24" s="4">
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.23300000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>52</v>
@@ -1669,19 +1438,19 @@
       <c r="C25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="6">
-        <v>0.96799999999999997</v>
+      <c r="D25" s="5">
+        <v>1.5</v>
       </c>
       <c r="E25" s="4">
-        <v>-0.47699999999999998</v>
+        <v>-1.012</v>
       </c>
       <c r="F25" s="4">
-        <v>-0.30399999999999999</v>
+        <v>-0.56399999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>54</v>
@@ -1690,18 +1459,18 @@
         <v>55</v>
       </c>
       <c r="D26" s="5">
-        <v>3.875</v>
+        <v>3.2050000000000001</v>
       </c>
       <c r="E26" s="4">
-        <v>-0.59099999999999997</v>
+        <v>-0.52900000000000003</v>
       </c>
       <c r="F26" s="4">
-        <v>-0.16900000000000001</v>
+        <v>-4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>56</v>
@@ -1710,18 +1479,18 @@
         <v>57</v>
       </c>
       <c r="D27" s="5">
-        <v>7.1950000000000003</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="E27" s="4">
-        <v>-0.83799999999999997</v>
+        <v>-0.80500000000000005</v>
       </c>
       <c r="F27" s="4">
-        <v>-0.33800000000000002</v>
+        <v>-3.9E-2</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>58</v>
@@ -1729,19 +1498,19 @@
       <c r="C28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="4">
-        <v>-2.1110000000000002</v>
+      <c r="D28" s="5">
+        <v>2.3639999999999999</v>
       </c>
       <c r="E28" s="4">
-        <v>-1.3480000000000001</v>
+        <v>-0.93899999999999995</v>
       </c>
       <c r="F28" s="4">
-        <v>-0.26</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>60</v>
@@ -1750,18 +1519,18 @@
         <v>61</v>
       </c>
       <c r="D29" s="5">
-        <v>2.6040000000000001</v>
+        <v>3.0409999999999999</v>
       </c>
       <c r="E29" s="4">
-        <v>-0.44700000000000001</v>
+        <v>-0.16600000000000001</v>
       </c>
       <c r="F29" s="4">
-        <v>-0.13500000000000001</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>62</v>
@@ -1769,19 +1538,19 @@
       <c r="C30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="6">
-        <v>0.113</v>
+      <c r="D30" s="5">
+        <v>3.9420000000000002</v>
       </c>
       <c r="E30" s="4">
-        <v>-1.3660000000000001</v>
+        <v>-0.105</v>
       </c>
       <c r="F30" s="4">
-        <v>-3.7999999999999999E-2</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>64</v>
@@ -1789,19 +1558,19 @@
       <c r="C31" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="6">
-        <v>1.768</v>
+      <c r="D31" s="5">
+        <v>3.47</v>
       </c>
       <c r="E31" s="4">
-        <v>-1.504</v>
+        <v>-0.23400000000000001</v>
       </c>
       <c r="F31" s="4">
-        <v>-0.183</v>
+        <v>-0.26900000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>66</v>
@@ -1810,18 +1579,18 @@
         <v>67</v>
       </c>
       <c r="D32" s="5">
-        <v>2.956</v>
+        <v>1.78</v>
       </c>
       <c r="E32" s="4">
-        <v>-0.19400000000000001</v>
+        <v>-0.76900000000000002</v>
       </c>
       <c r="F32" s="4">
-        <v>-5.8999999999999997E-2</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>68</v>
@@ -1829,19 +1598,19 @@
       <c r="C33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="4">
-        <v>-3.1539999999999999</v>
+      <c r="D33" s="5">
+        <v>2.9140000000000001</v>
       </c>
       <c r="E33" s="4">
-        <v>-0.54500000000000004</v>
+        <v>-0.83199999999999996</v>
       </c>
       <c r="F33" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.49299999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>70</v>
@@ -1850,18 +1619,18 @@
         <v>71</v>
       </c>
       <c r="D34" s="5">
-        <v>0.56100000000000005</v>
+        <v>2.9889999999999999</v>
       </c>
       <c r="E34" s="4">
-        <v>-1.772</v>
+        <v>-1.2969999999999999</v>
       </c>
       <c r="F34" s="4">
-        <v>-0.20100000000000001</v>
+        <v>-0.20699999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>72</v>
@@ -1870,18 +1639,18 @@
         <v>73</v>
       </c>
       <c r="D35" s="5">
-        <v>3.722</v>
+        <v>3.7250000000000001</v>
       </c>
       <c r="E35" s="4">
-        <v>-0.94499999999999995</v>
+        <v>-0.71299999999999997</v>
       </c>
       <c r="F35" s="4">
-        <v>-0.443</v>
+        <v>-0.20599999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>74</v>
@@ -1890,18 +1659,18 @@
         <v>75</v>
       </c>
       <c r="D36" s="5">
-        <v>3.67</v>
+        <v>1.925</v>
       </c>
       <c r="E36" s="4">
-        <v>-1.38</v>
+        <v>-0.67100000000000004</v>
       </c>
       <c r="F36" s="4">
-        <v>-0.13</v>
+        <v>-0.222</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>193</v>
+        <v>330</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>76</v>
@@ -1909,19 +1678,19 @@
       <c r="C37" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="4">
-        <v>-1.8120000000000001</v>
+      <c r="D37" s="5">
+        <v>2.3639999999999999</v>
       </c>
       <c r="E37" s="4">
-        <v>-0.90800000000000003</v>
+        <v>-0.52200000000000002</v>
       </c>
       <c r="F37" s="4">
-        <v>-9.7000000000000003E-2</v>
+        <v>-0.27400000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>205</v>
+        <v>334</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>78</v>
@@ -1930,18 +1699,18 @@
         <v>79</v>
       </c>
       <c r="D38" s="5">
-        <v>0.70499999999999996</v>
+        <v>1.84</v>
       </c>
       <c r="E38" s="4">
-        <v>-0.16600000000000001</v>
+        <v>-1.5349999999999999</v>
       </c>
       <c r="F38" s="4">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.47299999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>80</v>
@@ -1949,19 +1718,19 @@
       <c r="C39" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="6">
-        <v>0.35299999999999998</v>
+      <c r="D39" s="5">
+        <v>3.0249999999999999</v>
       </c>
       <c r="E39" s="4">
-        <v>-0.27700000000000002</v>
+        <v>-0.123</v>
       </c>
       <c r="F39" s="4">
-        <v>-0.13800000000000001</v>
+        <v>-0.254</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>82</v>
@@ -1969,19 +1738,19 @@
       <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="6">
-        <v>0.157</v>
+      <c r="D40" s="5">
+        <v>4.41</v>
       </c>
       <c r="E40" s="4">
-        <v>-0.68700000000000006</v>
+        <v>-0.40500000000000003</v>
       </c>
       <c r="F40" s="4">
-        <v>-0.19</v>
+        <v>-0.41099999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>84</v>
@@ -1989,19 +1758,19 @@
       <c r="C41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D41" s="4">
-        <v>-0.17499999999999999</v>
+      <c r="D41" s="5">
+        <v>2.7949999999999999</v>
       </c>
       <c r="E41" s="4">
-        <v>-1.147</v>
+        <v>-0.83299999999999996</v>
       </c>
       <c r="F41" s="4">
-        <v>-0.47199999999999998</v>
+        <v>-0.23499999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>86</v>
@@ -2010,18 +1779,18 @@
         <v>87</v>
       </c>
       <c r="D42" s="5">
-        <v>1.2010000000000001</v>
+        <v>3.7090000000000001</v>
       </c>
       <c r="E42" s="4">
-        <v>-0.47899999999999998</v>
+        <v>-0.27400000000000002</v>
       </c>
       <c r="F42" s="4">
-        <v>-5.7000000000000002E-2</v>
+        <v>-0.32100000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>88</v>
@@ -2030,18 +1799,18 @@
         <v>89</v>
       </c>
       <c r="D43" s="5">
-        <v>5.4530000000000003</v>
+        <v>2.4340000000000002</v>
       </c>
       <c r="E43" s="4">
-        <v>-0.84</v>
+        <v>-0.23699999999999999</v>
       </c>
       <c r="F43" s="4">
-        <v>-2.8119999999999998</v>
+        <v>-2.4E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
-        <v>216</v>
+        <v>346</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>90</v>
@@ -2050,18 +1819,18 @@
         <v>91</v>
       </c>
       <c r="D44" s="5">
-        <v>1.42</v>
+        <v>2.198</v>
       </c>
       <c r="E44" s="4">
-        <v>-0.73799999999999999</v>
+        <v>-0.151</v>
       </c>
       <c r="F44" s="4">
-        <v>-0.23300000000000001</v>
+        <v>-5.5E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>92</v>
@@ -2069,19 +1838,19 @@
       <c r="C45" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D45" s="4">
-        <v>-2.3450000000000002</v>
+      <c r="D45" s="5">
+        <v>1.865</v>
       </c>
       <c r="E45" s="4">
-        <v>-13.01</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="F45" s="4">
-        <v>-2.8239999999999998</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>94</v>
@@ -2090,18 +1859,18 @@
         <v>95</v>
       </c>
       <c r="D46" s="5">
-        <v>1.5</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="E46" s="4">
-        <v>-1.012</v>
+        <v>-0.25800000000000001</v>
       </c>
       <c r="F46" s="4">
-        <v>-0.56399999999999995</v>
+        <v>-0.23699999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>96</v>
@@ -2110,18 +1879,18 @@
         <v>97</v>
       </c>
       <c r="D47" s="5">
-        <v>3.2050000000000001</v>
+        <v>1.462</v>
       </c>
       <c r="E47" s="4">
-        <v>-0.52900000000000003</v>
+        <v>-0.51</v>
       </c>
       <c r="F47" s="4">
-        <v>-4.9000000000000002E-2</v>
+        <v>-0.214</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>244</v>
+        <v>365</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>98</v>
@@ -2130,18 +1899,18 @@
         <v>99</v>
       </c>
       <c r="D48" s="5">
-        <v>0.70199999999999996</v>
+        <v>3.3860000000000001</v>
       </c>
       <c r="E48" s="4">
-        <v>-0.80500000000000005</v>
+        <v>-1.0780000000000001</v>
       </c>
       <c r="F48" s="4">
-        <v>-3.9E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>100</v>
@@ -2150,18 +1919,18 @@
         <v>101</v>
       </c>
       <c r="D49" s="5">
-        <v>2.3639999999999999</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="E49" s="4">
-        <v>-0.93899999999999995</v>
+        <v>-0.87</v>
       </c>
       <c r="F49" s="4">
-        <v>-5.8000000000000003E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>102</v>
@@ -2170,18 +1939,18 @@
         <v>103</v>
       </c>
       <c r="D50" s="5">
-        <v>3.0409999999999999</v>
+        <v>1.6060000000000001</v>
       </c>
       <c r="E50" s="4">
-        <v>-0.16600000000000001</v>
+        <v>-0.26600000000000001</v>
       </c>
       <c r="F50" s="4">
-        <v>-9.6000000000000002E-2</v>
+        <v>-0.20599999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>263</v>
+        <v>389</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>104</v>
@@ -2190,18 +1959,18 @@
         <v>105</v>
       </c>
       <c r="D51" s="5">
-        <v>3.9420000000000002</v>
+        <v>4.12</v>
       </c>
       <c r="E51" s="4">
-        <v>-0.105</v>
+        <v>-1.0860000000000001</v>
       </c>
       <c r="F51" s="4">
-        <v>-0.112</v>
+        <v>-0.434</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>266</v>
+        <v>394</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>106</v>
@@ -2210,18 +1979,18 @@
         <v>107</v>
       </c>
       <c r="D52" s="5">
-        <v>3.47</v>
+        <v>1.3080000000000001</v>
       </c>
       <c r="E52" s="4">
-        <v>-0.23400000000000001</v>
+        <v>-0.38900000000000001</v>
       </c>
       <c r="F52" s="4">
-        <v>-0.26900000000000002</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>271</v>
+        <v>399</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>108</v>
@@ -2229,19 +1998,19 @@
       <c r="C53" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="4">
-        <v>-1.008</v>
+      <c r="D53" s="5">
+        <v>2.0670000000000002</v>
       </c>
       <c r="E53" s="4">
-        <v>-4.9000000000000002E-2</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="F53" s="4">
-        <v>-5.0999999999999997E-2</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
-        <v>272</v>
+        <v>406</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>110</v>
@@ -2249,19 +2018,19 @@
       <c r="C54" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="6">
-        <v>0.96</v>
+      <c r="D54" s="5">
+        <v>2.5990000000000002</v>
       </c>
       <c r="E54" s="4">
-        <v>-0.26700000000000002</v>
+        <v>-0.246</v>
       </c>
       <c r="F54" s="4">
-        <v>-0.157</v>
+        <v>-5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
-        <v>273</v>
+        <v>410</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>112</v>
@@ -2269,19 +2038,19 @@
       <c r="C55" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="4">
-        <v>-1.252</v>
+      <c r="D55" s="5">
+        <v>0.74099999999999999</v>
       </c>
       <c r="E55" s="4">
-        <v>-1.365</v>
+        <v>-0.29099999999999998</v>
       </c>
       <c r="F55" s="4">
-        <v>-0.26500000000000001</v>
+        <v>-0.14599999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
-        <v>276</v>
+        <v>429</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>114</v>
@@ -2290,18 +2059,18 @@
         <v>115</v>
       </c>
       <c r="D56" s="5">
-        <v>1.78</v>
+        <v>1.0009999999999999</v>
       </c>
       <c r="E56" s="4">
-        <v>-0.76900000000000002</v>
+        <v>-0.74199999999999999</v>
       </c>
       <c r="F56" s="4">
-        <v>-8.8999999999999996E-2</v>
+        <v>-0.252</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>279</v>
+        <v>430</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>116</v>
@@ -2310,18 +2079,18 @@
         <v>117</v>
       </c>
       <c r="D57" s="5">
-        <v>2.9140000000000001</v>
+        <v>1.9850000000000001</v>
       </c>
       <c r="E57" s="4">
-        <v>-0.83199999999999996</v>
+        <v>-0.34499999999999997</v>
       </c>
       <c r="F57" s="4">
-        <v>-0.49299999999999999</v>
+        <v>-0.23699999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>118</v>
@@ -2329,19 +2098,19 @@
       <c r="C58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="6">
-        <v>1.1819999999999999</v>
+      <c r="D58" s="5">
+        <v>2.0449999999999999</v>
       </c>
       <c r="E58" s="4">
-        <v>-0.38900000000000001</v>
+        <v>-0.154</v>
       </c>
       <c r="F58" s="4">
-        <v>-9.1999999999999998E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>287</v>
+        <v>456</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>120</v>
@@ -2349,19 +2118,19 @@
       <c r="C59" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="6">
-        <v>1.4690000000000001</v>
+      <c r="D59" s="5">
+        <v>1.9510000000000001</v>
       </c>
       <c r="E59" s="4">
-        <v>-0.996</v>
+        <v>-0.109</v>
       </c>
       <c r="F59" s="4">
-        <v>-0.193</v>
+        <v>-0.10299999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
-        <v>293</v>
+        <v>461</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -2370,18 +2139,18 @@
         <v>123</v>
       </c>
       <c r="D60" s="5">
-        <v>2.9889999999999999</v>
+        <v>2.9129999999999998</v>
       </c>
       <c r="E60" s="4">
-        <v>-1.2969999999999999</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="F60" s="4">
-        <v>-0.20699999999999999</v>
+        <v>-0.14399999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>314</v>
+        <v>492</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>124</v>
@@ -2390,18 +2159,18 @@
         <v>125</v>
       </c>
       <c r="D61" s="5">
-        <v>3.7250000000000001</v>
+        <v>4.6580000000000004</v>
       </c>
       <c r="E61" s="4">
-        <v>-0.71299999999999997</v>
+        <v>-2.4350000000000001</v>
       </c>
       <c r="F61" s="4">
-        <v>-0.20599999999999999</v>
+        <v>-0.96699999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>318</v>
+        <v>494</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>126</v>
@@ -2409,19 +2178,19 @@
       <c r="C62" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="4">
-        <v>-1.591</v>
+      <c r="D62" s="5">
+        <v>3.532</v>
       </c>
       <c r="E62" s="4">
-        <v>-1.2569999999999999</v>
+        <v>-1.016</v>
       </c>
       <c r="F62" s="4">
-        <v>-0.13600000000000001</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>322</v>
+        <v>495</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>128</v>
@@ -2429,19 +2198,19 @@
       <c r="C63" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="2">
-        <v>0</v>
+      <c r="D63" s="5">
+        <v>3.8959999999999999</v>
       </c>
       <c r="E63" s="4">
-        <v>-3.5999999999999997E-2</v>
+        <v>-0.432</v>
       </c>
       <c r="F63" s="4">
-        <v>-0.65900000000000003</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>324</v>
+        <v>497</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>130</v>
@@ -2450,18 +2219,18 @@
         <v>131</v>
       </c>
       <c r="D64" s="5">
-        <v>1.925</v>
+        <v>1.46</v>
       </c>
       <c r="E64" s="4">
-        <v>-0.67100000000000004</v>
+        <v>-0.49099999999999999</v>
       </c>
       <c r="F64" s="4">
-        <v>-0.222</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>330</v>
+        <v>503</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>132</v>
@@ -2470,18 +2239,18 @@
         <v>133</v>
       </c>
       <c r="D65" s="5">
-        <v>2.3639999999999999</v>
+        <v>2.673</v>
       </c>
       <c r="E65" s="4">
-        <v>-0.52200000000000002</v>
+        <v>-0.27100000000000002</v>
       </c>
       <c r="F65" s="4">
-        <v>-0.27400000000000002</v>
+        <v>-0.627</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>333</v>
+        <v>509</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>134</v>
@@ -2489,19 +2258,19 @@
       <c r="C66" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="6">
-        <v>0.33</v>
+      <c r="D66" s="5">
+        <v>1.18</v>
       </c>
       <c r="E66" s="4">
-        <v>-1.01</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="F66" s="4">
-        <v>-0.109</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>334</v>
+        <v>513</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>136</v>
@@ -2510,18 +2279,18 @@
         <v>137</v>
       </c>
       <c r="D67" s="5">
-        <v>1.84</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="E67" s="4">
-        <v>-1.5349999999999999</v>
+        <v>-0.69699999999999995</v>
       </c>
       <c r="F67" s="4">
-        <v>-0.47299999999999998</v>
+        <v>-0.27900000000000003</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
-        <v>335</v>
+        <v>514</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>138</v>
@@ -2530,18 +2299,18 @@
         <v>139</v>
       </c>
       <c r="D68" s="5">
-        <v>3.0249999999999999</v>
+        <v>3.3279999999999998</v>
       </c>
       <c r="E68" s="4">
-        <v>-0.123</v>
+        <v>-0.45800000000000002</v>
       </c>
       <c r="F68" s="4">
-        <v>-0.254</v>
+        <v>-0.19700000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <v>336</v>
+        <v>517</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>140</v>
@@ -2549,19 +2318,19 @@
       <c r="C69" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="4">
-        <v>-1.885</v>
+      <c r="D69" s="5">
+        <v>4.8570000000000002</v>
       </c>
       <c r="E69" s="4">
-        <v>-0.97199999999999998</v>
+        <v>-0.42699999999999999</v>
       </c>
       <c r="F69" s="4">
-        <v>-1.4E-2</v>
+        <v>-0.89300000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
-        <v>338</v>
+        <v>520</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>142</v>
@@ -2570,18 +2339,18 @@
         <v>143</v>
       </c>
       <c r="D70" s="5">
-        <v>4.41</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="E70" s="4">
-        <v>-0.40500000000000003</v>
+        <v>-7.1999999999999995E-2</v>
       </c>
       <c r="F70" s="4">
-        <v>-0.41099999999999998</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
-        <v>339</v>
+        <v>536</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>144</v>
@@ -2589,19 +2358,19 @@
       <c r="C71" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="2">
-        <v>0</v>
+      <c r="D71" s="5">
+        <v>3.0870000000000002</v>
       </c>
       <c r="E71" s="4">
-        <v>-0.13900000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="F71" s="4">
-        <v>-0.35699999999999998</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
-        <v>342</v>
+        <v>541</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>146</v>
@@ -2610,18 +2379,18 @@
         <v>147</v>
       </c>
       <c r="D72" s="5">
-        <v>2.7949999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="E72" s="4">
-        <v>-0.83299999999999996</v>
+        <v>-0.54300000000000004</v>
       </c>
       <c r="F72" s="4">
-        <v>-0.23499999999999999</v>
+        <v>-0.34100000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
-        <v>343</v>
+        <v>543</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>148</v>
@@ -2630,18 +2399,18 @@
         <v>149</v>
       </c>
       <c r="D73" s="5">
-        <v>3.7090000000000001</v>
+        <v>3.8450000000000002</v>
       </c>
       <c r="E73" s="4">
-        <v>-0.27400000000000002</v>
+        <v>-0.65500000000000003</v>
       </c>
       <c r="F73" s="4">
-        <v>-0.32100000000000001</v>
+        <v>-0.157</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
-        <v>344</v>
+        <v>549</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>150</v>
@@ -2650,18 +2419,18 @@
         <v>151</v>
       </c>
       <c r="D74" s="5">
-        <v>2.4340000000000002</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="E74" s="4">
-        <v>-0.23699999999999999</v>
+        <v>-0.68100000000000005</v>
       </c>
       <c r="F74" s="4">
-        <v>-2.4E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
-        <v>346</v>
+        <v>555</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>152</v>
@@ -2670,18 +2439,18 @@
         <v>153</v>
       </c>
       <c r="D75" s="5">
-        <v>2.198</v>
+        <v>3.99</v>
       </c>
       <c r="E75" s="4">
-        <v>-0.151</v>
+        <v>-0.61299999999999999</v>
       </c>
       <c r="F75" s="4">
-        <v>-5.5E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
-        <v>347</v>
+        <v>557</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>154</v>
@@ -2690,18 +2459,18 @@
         <v>155</v>
       </c>
       <c r="D76" s="5">
-        <v>1.865</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="E76" s="4">
-        <v>-3.0000000000000001E-3</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="F76" s="4">
-        <v>-4.0000000000000001E-3</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
-        <v>348</v>
+        <v>558</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>156</v>
@@ -2709,19 +2478,19 @@
       <c r="C77" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="6">
-        <v>1.085</v>
+      <c r="D77" s="5">
+        <v>1.833</v>
       </c>
       <c r="E77" s="4">
-        <v>-0.68899999999999995</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="F77" s="4">
-        <v>-0.66500000000000004</v>
+        <v>-0.115</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
-        <v>349</v>
+        <v>564</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>158</v>
@@ -2730,18 +2499,18 @@
         <v>159</v>
       </c>
       <c r="D78" s="5">
-        <v>1.5860000000000001</v>
+        <v>1.2709999999999999</v>
       </c>
       <c r="E78" s="4">
-        <v>-0.25800000000000001</v>
+        <v>-0.436</v>
       </c>
       <c r="F78" s="4">
-        <v>-0.23699999999999999</v>
+        <v>-0.20100000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
-        <v>360</v>
+        <v>577</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>160</v>
@@ -2749,19 +2518,19 @@
       <c r="C79" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="4">
-        <v>-0.32900000000000001</v>
+      <c r="D79" s="5">
+        <v>6.9169999999999998</v>
       </c>
       <c r="E79" s="4">
-        <v>-3.1E-2</v>
+        <v>-0.51100000000000001</v>
       </c>
       <c r="F79" s="4">
-        <v>-0.26700000000000002</v>
+        <v>-0.219</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
-        <v>362</v>
+        <v>578</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>162</v>
@@ -2770,18 +2539,18 @@
         <v>163</v>
       </c>
       <c r="D80" s="5">
-        <v>1.462</v>
+        <v>4.1559999999999997</v>
       </c>
       <c r="E80" s="4">
-        <v>-0.51</v>
+        <v>-0.29599999999999999</v>
       </c>
       <c r="F80" s="4">
-        <v>-0.214</v>
+        <v>-0.185</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
-        <v>365</v>
+        <v>579</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>164</v>
@@ -2790,18 +2559,18 @@
         <v>165</v>
       </c>
       <c r="D81" s="5">
-        <v>3.3860000000000001</v>
+        <v>2.6560000000000001</v>
       </c>
       <c r="E81" s="4">
-        <v>-1.0780000000000001</v>
+        <v>-0.33100000000000002</v>
       </c>
       <c r="F81" s="4">
-        <v>-3.7999999999999999E-2</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
-        <v>366</v>
+        <v>580</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>166</v>
@@ -2810,18 +2579,18 @@
         <v>167</v>
       </c>
       <c r="D82" s="5">
-        <v>3.9449999999999998</v>
+        <v>3.5710000000000002</v>
       </c>
       <c r="E82" s="4">
-        <v>-0.87</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="F82" s="4">
-        <v>-2.1000000000000001E-2</v>
+        <v>-0.27300000000000002</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
-        <v>372</v>
+        <v>585</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>168</v>
@@ -2830,18 +2599,18 @@
         <v>169</v>
       </c>
       <c r="D83" s="5">
-        <v>1.6060000000000001</v>
+        <v>4.7169999999999996</v>
       </c>
       <c r="E83" s="4">
-        <v>-0.26600000000000001</v>
+        <v>-0.73799999999999999</v>
       </c>
       <c r="F83" s="4">
-        <v>-0.20599999999999999</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
-        <v>376</v>
+        <v>599</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>170</v>
@@ -2849,19 +2618,19 @@
       <c r="C84" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="6">
-        <v>2.0179999999999998</v>
+      <c r="D84" s="5">
+        <v>2.278</v>
       </c>
       <c r="E84" s="4">
-        <v>-1.0309999999999999</v>
+        <v>-0.246</v>
       </c>
       <c r="F84" s="4">
-        <v>-0.44</v>
+        <v>-1.6E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
-        <v>378</v>
+        <v>601</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>172</v>
@@ -2869,762 +2638,22 @@
       <c r="C85" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D85" s="4">
-        <v>-2.7120000000000002</v>
+      <c r="D85" s="5">
+        <v>6.2759999999999998</v>
       </c>
       <c r="E85" s="4">
-        <v>-22.030999999999999</v>
+        <v>-1.264</v>
       </c>
       <c r="F85" s="4">
-        <v>-3.9849999999999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="2">
-        <v>389</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86" s="5">
-        <v>4.12</v>
-      </c>
-      <c r="E86" s="4">
-        <v>-1.0860000000000001</v>
-      </c>
-      <c r="F86" s="4">
-        <v>-0.434</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="2">
-        <v>394</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D87" s="5">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="E87" s="4">
-        <v>-0.38900000000000001</v>
-      </c>
-      <c r="F87" s="4">
-        <v>-4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="2">
-        <v>399</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D88" s="5">
-        <v>2.0670000000000002</v>
-      </c>
-      <c r="E88" s="4">
-        <v>-0.17399999999999999</v>
-      </c>
-      <c r="F88" s="4">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2">
-        <v>406</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="5">
-        <v>2.5990000000000002</v>
-      </c>
-      <c r="E89" s="4">
-        <v>-0.246</v>
-      </c>
-      <c r="F89" s="4">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="2">
-        <v>410</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="5">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="E90" s="4">
-        <v>-0.29099999999999998</v>
-      </c>
-      <c r="F90" s="4">
-        <v>-0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="2">
-        <v>413</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D91" s="6">
-        <v>1.71</v>
-      </c>
-      <c r="E91" s="4">
-        <v>-0.35099999999999998</v>
-      </c>
-      <c r="F91" s="4">
-        <v>-0.105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="2">
-        <v>429</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D92" s="5">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="E92" s="4">
-        <v>-0.74199999999999999</v>
-      </c>
-      <c r="F92" s="4">
-        <v>-0.252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="2">
-        <v>430</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D93" s="5">
-        <v>1.9850000000000001</v>
-      </c>
-      <c r="E93" s="4">
-        <v>-0.34499999999999997</v>
-      </c>
-      <c r="F93" s="4">
-        <v>-0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="2">
-        <v>449</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D94" s="5">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="E94" s="4">
-        <v>-0.154</v>
-      </c>
-      <c r="F94" s="4">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="2">
-        <v>456</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D95" s="5">
-        <v>1.9510000000000001</v>
-      </c>
-      <c r="E95" s="4">
-        <v>-0.109</v>
-      </c>
-      <c r="F95" s="4">
-        <v>-0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="2">
-        <v>461</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D96" s="5">
-        <v>2.9129999999999998</v>
-      </c>
-      <c r="E96" s="4">
-        <v>-0.13100000000000001</v>
-      </c>
-      <c r="F96" s="4">
-        <v>-0.14399999999999999</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="2">
-        <v>492</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D97" s="5">
-        <v>4.6580000000000004</v>
-      </c>
-      <c r="E97" s="4">
-        <v>-2.4350000000000001</v>
-      </c>
-      <c r="F97" s="4">
-        <v>-0.96699999999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="2">
-        <v>494</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D98" s="5">
-        <v>3.532</v>
-      </c>
-      <c r="E98" s="4">
-        <v>-1.016</v>
-      </c>
-      <c r="F98" s="4">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="2">
-        <v>495</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="5">
-        <v>3.8959999999999999</v>
-      </c>
-      <c r="E99" s="4">
-        <v>-0.432</v>
-      </c>
-      <c r="F99" s="4">
-        <v>-4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="2">
-        <v>497</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="5">
-        <v>1.46</v>
-      </c>
-      <c r="E100" s="4">
-        <v>-0.49099999999999999</v>
-      </c>
-      <c r="F100" s="4">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="2">
-        <v>503</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D101" s="5">
-        <v>2.673</v>
-      </c>
-      <c r="E101" s="4">
-        <v>-0.27100000000000002</v>
-      </c>
-      <c r="F101" s="4">
-        <v>-0.627</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="2">
-        <v>509</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" s="5">
-        <v>1.18</v>
-      </c>
-      <c r="E102" s="4">
-        <v>-5.5E-2</v>
-      </c>
-      <c r="F102" s="4">
-        <v>-5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="2">
-        <v>513</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D103" s="5">
-        <v>1.6930000000000001</v>
-      </c>
-      <c r="E103" s="4">
-        <v>-0.69699999999999995</v>
-      </c>
-      <c r="F103" s="4">
-        <v>-0.27900000000000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="2">
-        <v>514</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D104" s="5">
-        <v>3.3279999999999998</v>
-      </c>
-      <c r="E104" s="4">
-        <v>-0.45800000000000002</v>
-      </c>
-      <c r="F104" s="4">
-        <v>-0.19700000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="2">
-        <v>517</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D105" s="5">
-        <v>4.8570000000000002</v>
-      </c>
-      <c r="E105" s="4">
-        <v>-0.42699999999999999</v>
-      </c>
-      <c r="F105" s="4">
-        <v>-0.89300000000000002</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="2">
-        <v>520</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D106" s="5">
-        <v>6.9660000000000002</v>
-      </c>
-      <c r="E106" s="4">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="F106" s="4">
-        <v>-7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="2">
-        <v>536</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D107" s="5">
-        <v>3.0870000000000002</v>
-      </c>
-      <c r="E107" s="4">
-        <v>-0.01</v>
-      </c>
-      <c r="F107" s="4">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="2">
-        <v>537</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D108" s="4">
-        <v>-1.841</v>
-      </c>
-      <c r="E108" s="4">
-        <v>-0.33700000000000002</v>
-      </c>
-      <c r="F108" s="4">
-        <v>-0.441</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="2">
-        <v>541</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D109" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="E109" s="4">
-        <v>-0.54300000000000004</v>
-      </c>
-      <c r="F109" s="4">
-        <v>-0.34100000000000003</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="2">
-        <v>543</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D110" s="5">
-        <v>3.8450000000000002</v>
-      </c>
-      <c r="E110" s="4">
-        <v>-0.65500000000000003</v>
-      </c>
-      <c r="F110" s="4">
-        <v>-0.157</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="2">
-        <v>549</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D111" s="5">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="E111" s="4">
-        <v>-0.68100000000000005</v>
-      </c>
-      <c r="F111" s="4">
-        <v>-3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="2">
-        <v>555</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D112" s="5">
-        <v>3.99</v>
-      </c>
-      <c r="E112" s="4">
-        <v>-0.61299999999999999</v>
-      </c>
-      <c r="F112" s="4">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="2">
-        <v>557</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D113" s="5">
-        <v>2.6040000000000001</v>
-      </c>
-      <c r="E113" s="4">
-        <v>-7.5999999999999998E-2</v>
-      </c>
-      <c r="F113" s="4">
-        <v>-0.151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="2">
-        <v>558</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D114" s="5">
-        <v>1.833</v>
-      </c>
-      <c r="E114" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="F114" s="4">
-        <v>-0.115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="2">
-        <v>564</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D115" s="5">
-        <v>1.2709999999999999</v>
-      </c>
-      <c r="E115" s="4">
-        <v>-0.436</v>
-      </c>
-      <c r="F115" s="4">
-        <v>-0.20100000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="2">
-        <v>577</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D116" s="5">
-        <v>6.9169999999999998</v>
-      </c>
-      <c r="E116" s="4">
-        <v>-0.51100000000000001</v>
-      </c>
-      <c r="F116" s="4">
-        <v>-0.219</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="2">
-        <v>578</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D117" s="5">
-        <v>4.1559999999999997</v>
-      </c>
-      <c r="E117" s="4">
-        <v>-0.29599999999999999</v>
-      </c>
-      <c r="F117" s="4">
-        <v>-0.185</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="2">
-        <v>579</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D118" s="5">
-        <v>2.6560000000000001</v>
-      </c>
-      <c r="E118" s="4">
-        <v>-0.33100000000000002</v>
-      </c>
-      <c r="F118" s="4">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="2">
-        <v>580</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D119" s="5">
-        <v>3.5710000000000002</v>
-      </c>
-      <c r="E119" s="4">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="F119" s="4">
-        <v>-0.27300000000000002</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="2">
-        <v>585</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D120" s="5">
-        <v>4.7169999999999996</v>
-      </c>
-      <c r="E120" s="4">
-        <v>-0.73799999999999999</v>
-      </c>
-      <c r="F120" s="4">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="2">
-        <v>599</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D121" s="5">
-        <v>2.278</v>
-      </c>
-      <c r="E121" s="4">
-        <v>-0.246</v>
-      </c>
-      <c r="F121" s="4">
-        <v>-1.6E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="2">
-        <v>601</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D122" s="5">
-        <v>6.2759999999999998</v>
-      </c>
-      <c r="E122" s="4">
-        <v>-1.264</v>
-      </c>
-      <c r="F122" s="4">
         <v>-0.45100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C122 D1:F122" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 D1:F1 A2:C3 D2:F3 A4:C5 D4:F5 A6:C6 D6:F6 A10:C12 D10:F12 A16:C16 D16:F16 A14:C15 D14:F15 A13:C13 D13:F13 A7:C9 D7:F9 A22:C24 D22:F24 A21:C21 D21:F21 A18:C20 D18:F20 A17:C17 D17:F17 A32:C33 D32:F33 A25:C31 D25:F31 A36:C37 D36:F37 A34:C35 D34:F35 A38:C39 D38:F39 A47:C50 D47:F50 A46:C46 D46:F46 A41:C45 D41:F45 A40:C40 D40:F40 A56:C71 D56:F71 A51:C55 D51:F55 A72:C85 D72:F85" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>